--- a/Análises Esportivas/ciclos de Netuno/4 - editável_ciclos.xlsx
+++ b/Análises Esportivas/ciclos de Netuno/4 - editável_ciclos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -153,6 +153,9 @@
     <t xml:space="preserve">Data Fim</t>
   </si>
   <si>
+    <t xml:space="preserve">09-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banca Atual</t>
   </si>
   <si>
@@ -175,6 +178,15 @@
   </si>
   <si>
     <t xml:space="preserve">Saque final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-10</t>
   </si>
 </sst>
 </file>
@@ -1350,15 +1362,15 @@
       </c>
       <c r="C8" s="28" t="n">
         <f aca="false">'Ciclo 1'!N5</f>
-        <v>5.03</v>
+        <v>6.2</v>
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>3</v>
+        <v>6.39</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>4.5</v>
+        <v>9.59</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
@@ -1384,23 +1396,23 @@
       </c>
       <c r="C9" s="24" t="n">
         <f aca="false">C8</f>
-        <v>5.03</v>
+        <v>6.2</v>
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>5.03</v>
+        <v>9.59</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>6.53</v>
+        <v>14.68</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>8.03</v>
+        <v>14.68</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>11.03</v>
+        <v>17.68</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1409,7 +1421,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>2.03</v>
+        <v>8.68</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1420,15 +1432,15 @@
       </c>
       <c r="C10" s="24" t="n">
         <f aca="false">'Ciclo 1'!Q9</f>
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
@@ -1584,8 +1596,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,14 +1707,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G395)+Q2</f>
-        <v>5.03</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,11 +1763,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,19 +1811,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>5.03</v>
+        <v>6.2</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.676666666666667</v>
+        <v>1.06666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,11 +1867,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -1904,19 +1918,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.676666666666667</v>
+        <v>1.06666666666667</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I395)</f>
-        <v>0.908980297919683</v>
+        <v>1.73107465952804</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2020,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!C7</f>
@@ -2014,11 +2028,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 2'!Q2)</f>
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2041,14 +2055,16 @@
         <f aca="false">D10*J10</f>
         <v>0.172586572955467</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="58" t="n">
+        <v>0.39</v>
+      </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.0775347912524851</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>0.217413427044533</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!C$5)</f>
@@ -2068,7 +2084,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>5.42</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -2076,20 +2092,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.221312638792473</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.175319065436179</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="58" t="n">
+        <v>0.78</v>
+      </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.143911439114391</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>0.604680934563821</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!C$5)</f>
@@ -2110,7 +2128,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -2118,7 +2136,7 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.246833007656919</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
@@ -3996,7 +4014,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4062,7 +4080,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="86" t="s">
+        <v>51</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -4091,14 +4111,16 @@
         <f aca="false">D3*J3</f>
         <v>0.15</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.15</v>
+        <v>0.78</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!D4</f>
@@ -4109,14 +4131,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>3</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,7 +4149,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -4133,20 +4157,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.1915875</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.1535625</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>-0.11</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>-0.0279898218829517</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>-0.2635625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!D$5)</f>
@@ -4161,11 +4187,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,7 +4200,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -4182,20 +4208,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.181569375</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.157022455078125</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.243455497382199</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.772977544921875</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!D$5)</f>
@@ -4207,19 +4235,19 @@
       </c>
       <c r="L5" s="87"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>3</v>
+        <v>6.39</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4228,7 +4256,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -4236,20 +4264,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.2201291015625</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.160373780429906</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>0.83</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.174736842105263</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.669626219570094</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!D$5)</f>
@@ -4261,11 +4291,11 @@
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4277,7 +4307,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -4285,20 +4315,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.252128921484375</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.163610828086571</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>0.81</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.145161290322581</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>0.646389171913429</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!D$5)</f>
@@ -4310,19 +4342,19 @@
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>-0.15</v>
+        <v>2.6054304364054</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4363,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -4339,7 +4371,7 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.28151007402832</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
@@ -4408,7 +4440,7 @@
       </c>
       <c r="L9" s="87"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!D7</f>
@@ -4416,11 +4448,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6396,7 +6428,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6455,7 +6487,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -6485,14 +6519,16 @@
         <f aca="false">D3*J3</f>
         <v>0.225</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="58" t="n">
+        <v>0.91</v>
+      </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.202222222222222</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.225</v>
+        <v>0.685</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!E4</f>
@@ -6503,14 +6539,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="88" t="s">
+        <v>53</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>4.5</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,7 +6557,7 @@
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -6527,20 +6565,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.2637375</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.23034375</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="58" t="n">
+        <v>0.75</v>
+      </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.138632162661738</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.51965625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!E$5)</f>
@@ -6555,11 +6595,11 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,7 +6608,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -6576,20 +6616,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.2927925</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.235533682617188</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="58" t="n">
+        <v>0.7</v>
+      </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.113636363636364</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.464466317382812</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!E$5)</f>
@@ -6601,19 +6643,19 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.5</v>
+        <v>9.59</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.13111111111111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,7 +6664,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -6630,20 +6672,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.317912765625</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.240560670644859</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="58" t="n">
+        <v>1.12</v>
+      </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>0.879439329355141</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!E$5)</f>
@@ -6655,11 +6699,11 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6671,7 +6715,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>7.98</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -6679,20 +6723,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.360571468359375</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.245416242129856</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="58" t="n">
+        <v>1.61</v>
+      </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.201754385964912</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>1.36458375787014</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!E$5)</f>
@@ -6704,19 +6750,19 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.13111111111111</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>-0.225</v>
+        <v>3.9131456546081</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6771,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -6733,7 +6779,7 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.42248538496582</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
@@ -6802,7 +6848,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!E7</f>
@@ -6810,11 +6856,11 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>0</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8797,8 +8843,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8908,7 +8954,7 @@
       <c r="N3" s="88"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
@@ -8957,7 +9003,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
@@ -9003,7 +9049,7 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
@@ -9011,7 +9057,7 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
@@ -9057,7 +9103,7 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
@@ -9106,7 +9152,7 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
@@ -9114,7 +9160,7 @@
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
@@ -9204,7 +9250,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!F7</f>
@@ -9212,7 +9258,7 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 5'!Q2)</f>
@@ -11193,7 +11239,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -11306,7 +11352,7 @@
       <c r="N3" s="88"/>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <v>9</v>
@@ -11356,7 +11402,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="53"/>
       <c r="P4" s="51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
@@ -11404,7 +11450,7 @@
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
@@ -11412,7 +11458,7 @@
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
@@ -11460,7 +11506,7 @@
       </c>
       <c r="L6" s="62"/>
       <c r="M6" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
@@ -11511,7 +11557,7 @@
       </c>
       <c r="L7" s="62"/>
       <c r="M7" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
@@ -11519,7 +11565,7 @@
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
@@ -11613,7 +11659,7 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="73" t="n">
         <f aca="false">Diretrizes!G7</f>
@@ -11621,7 +11667,7 @@
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5)</f>
